--- a/Project Files/final_output.xlsx
+++ b/Project Files/final_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\Data Science\Project\Internshala Submissions\Blackcoffer\Project Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\Data Science\Project\Internshala Submission\Blackcoffer\Project Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
